--- a/biology/Botanique/Sobraliinae/Sobraliinae.xlsx
+++ b/biology/Botanique/Sobraliinae/Sobraliinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-tribu des Sobraliinae était une sous-tribu de la sous-famille des Epidendroideae, famille des Orchidaceae. La classification APG III considère dorénavant qu'il s'agit  de la tribu des Sobralieae incluant en plus le genre Sertifera, alors qu'auparavant cette sous-tribu n'était pas classée dans une tribu.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et biologie[2]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sous-tribu était un excellent exemple des progrès réalisés dans l'étude et la compréhension de l'évolution des plantes.
 En effet, l'étude phylogénétique a permis de mettre en évidence que deux genres (Elleanthus &amp; Sobralia) dont la morphologie est très différente sont en fait très proches génétiquement. C'est l'adaptation au milieu dans lesquels ils ont évolué (notamment les insectes pollinisateurs) qui a permis une évolution radicalement différente.
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le NCBI[3] (classification APG II)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le NCBI (classification APG II)
 Elleanthus C.Presl (1827).
 Epilyna Schltr. (1918).
 Sobralia Ruiz &amp; Pav. (1794).</t>
